--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3656182.802518106</v>
+        <v>3731712.472182911</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7903015.407149073</v>
+        <v>7903015.407149072</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>299.5779006984346</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>2.46741254485554</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>261.9025067912348</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>55.91076449303978</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>237.6596569995501</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.6509495310449</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>160.4740936944301</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>356.0499371768005</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>359.2847916696611</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>110.9272034736104</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>135.0087211245114</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784696</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>25.5892344692266</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.3855844998804878</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1782,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>25.94595380549131</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.80469552384545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>106.4942921985362</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>45.87424119343817</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>23.30984749387309</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>192.0485418516191</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.64469598743577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>28.22523322473833</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>36.56241635926716</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>52.31642329161471</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>101.1426547140132</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>87.6522097616202</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72.53254599401305</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>66.82772817228783</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>36.98273601213555</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1229.941371236149</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C2" t="n">
-        <v>1229.941371236149</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="D2" t="n">
-        <v>1229.941371236149</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="E2" t="n">
-        <v>844.1531186379043</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="F2" t="n">
-        <v>837.2076178887008</v>
+        <v>474.3991258260721</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>56.43531772425894</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>56.43531772425894</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.941371236149</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1383.846446409824</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C5" t="n">
-        <v>1014.883929469412</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>656.6182308626617</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>270.8299782644174</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>263.884477515214</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4580,37 +4582,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646715</v>
+        <v>2402.06014195321</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.985778385636</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1383.846446409824</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598707</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036447</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036447</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.591755944066</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.629239003654</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.363540396904</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>824.5752877986595</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>413.5893830090519</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205146</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944066</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.591755944066</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6471865296043</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6471865296043</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6471865296043</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750363</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296043</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="V10" t="n">
-        <v>211.6471865296043</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6471865296043</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6471865296043</v>
+        <v>562.3396194797416</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6471865296043</v>
+        <v>562.3396194797416</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5227,22 +5229,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1361.993455534651</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V13" t="n">
-        <v>1361.993455534651</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="W13" t="n">
-        <v>1361.993455534651</v>
+        <v>874.5376338299834</v>
       </c>
       <c r="X13" t="n">
-        <v>1361.993455534651</v>
+        <v>646.5480829319661</v>
       </c>
       <c r="Y13" t="n">
-        <v>1141.200876391121</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5288,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5309,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028587</v>
@@ -5434,7 +5436,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5443,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1272.788226326494</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.996260473455</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="X16" t="n">
-        <v>1298.996260473455</v>
+        <v>983.6595875400524</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.314749843308</v>
+        <v>762.8670083965222</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5503,7 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155903</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
@@ -5513,28 +5515,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5592,22 +5594,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5671,7 +5673,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5680,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,10 +5691,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
@@ -5701,22 +5703,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1280.271174999994</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>991.1425362135525</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>736.4580480076656</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>447.040877970705</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X19" t="n">
-        <v>447.040877970705</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.040877970705</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5753,7 +5755,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5768,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5789,7 +5791,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5832,22 +5834,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.6754855415407</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C22" t="n">
-        <v>268.6754855415407</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>268.6754855415407</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>120.7623919591476</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1193.852741006981</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>1193.852741006981</v>
       </c>
       <c r="W22" t="n">
-        <v>496.665036439558</v>
+        <v>1193.852741006981</v>
       </c>
       <c r="X22" t="n">
-        <v>268.6754855415407</v>
+        <v>965.863190108964</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.6754855415407</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6014,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6081,7 +6083,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>826.1356072130309</v>
+        <v>444.7802503911732</v>
       </c>
       <c r="C25" t="n">
-        <v>657.199424285124</v>
+        <v>275.8440674632664</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>125.7274280509306</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>125.7274280509306</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>125.7274280509306</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>898.5039869983195</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X25" t="n">
-        <v>898.5039869983195</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y25" t="n">
-        <v>898.5039869983195</v>
+        <v>626.428715221413</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,46 +6211,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6260,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6312,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6442,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6475,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6488,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>994.3109288932102</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C31" t="n">
-        <v>825.3747459653033</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529675</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6655,16 +6657,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X31" t="n">
-        <v>1396.75197286698</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y31" t="n">
-        <v>1175.95939372345</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,25 +6703,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
         <v>97.21709146028584</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1099.383571417482</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>810.2549326310402</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>555.5704444251534</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>266.1532743881928</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>266.1532743881928</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6926,40 +6928,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6977,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.9805482336712</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="C37" t="n">
-        <v>241.9805482336712</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D37" t="n">
-        <v>241.9805482336712</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7129,16 +7131,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X37" t="n">
-        <v>241.9805482336712</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y37" t="n">
-        <v>241.9805482336712</v>
+        <v>786.0822064765186</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,10 +7177,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7266,13 +7268,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7391,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>799.8610847926847</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C43" t="n">
-        <v>630.9249018647778</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D43" t="n">
-        <v>480.808262452442</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E43" t="n">
-        <v>332.8951688700489</v>
+        <v>367.6562405338843</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>220.766293035974</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>220.766293035974</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7600,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229244</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>981.5095496229244</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7633,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,7 +7663,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899127</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1461.559971555745</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>1172.431332769303</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719076</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747118</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>288.4091825776749</v>
+        <v>50.62661940943605</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119833</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9480,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10914,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,10 +11381,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>260.6481179293507</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.7520588239475</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>195.6016072528979</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.7799578282493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>115.053268859853</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>240.6487571431528</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>122.1112005290582</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>94.18881054695828</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>108.1872841945015</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>138.2683352386393</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>130.6844047393607</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>96.29904972659764</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24897,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>124.5670006750239</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>133.895351296769</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>94.71427510461479</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>3.118140440917728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>78.59331985064341</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>26.60011880760489</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>184.5648250462537</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147616</v>
+        <v>723403.7605147618</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.760514762</v>
+        <v>723403.7605147618</v>
       </c>
       <c r="G2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="H2" t="n">
+        <v>723403.7605147618</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="K2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="H2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="I2" t="n">
-        <v>723403.7605147616</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="M2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="O2" t="n">
         <v>723403.7605147612</v>
       </c>
-      <c r="M2" t="n">
-        <v>723403.7605147618</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.7605147613</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="P2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26448,7 +26450,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26470,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531789</v>
+        <v>-87854.09747531815</v>
       </c>
       <c r="C6" t="n">
-        <v>502113.7817392267</v>
+        <v>502113.7817392269</v>
       </c>
       <c r="D6" t="n">
-        <v>502113.7817392267</v>
+        <v>502113.7817392269</v>
       </c>
       <c r="E6" t="n">
-        <v>76952.85253684653</v>
+        <v>76952.85253684659</v>
       </c>
       <c r="F6" t="n">
-        <v>602112.8890137431</v>
+        <v>602112.8890137429</v>
       </c>
       <c r="G6" t="n">
         <v>602112.8890137423</v>
       </c>
       <c r="H6" t="n">
+        <v>602112.8890137428</v>
+      </c>
+      <c r="I6" t="n">
         <v>602112.8890137423</v>
       </c>
-      <c r="I6" t="n">
-        <v>602112.8890137426</v>
-      </c>
       <c r="J6" t="n">
-        <v>425689.6698211494</v>
+        <v>425689.6698211493</v>
       </c>
       <c r="K6" t="n">
         <v>602112.8890137423</v>
       </c>
       <c r="L6" t="n">
-        <v>602112.8890137423</v>
+        <v>602112.8890137424</v>
       </c>
       <c r="M6" t="n">
-        <v>467311.8737799057</v>
+        <v>467311.873779905</v>
       </c>
       <c r="N6" t="n">
-        <v>602112.8890137423</v>
+        <v>602112.8890137421</v>
       </c>
       <c r="O6" t="n">
         <v>602112.8890137423</v>
       </c>
       <c r="P6" t="n">
-        <v>602112.8890137423</v>
+        <v>602112.8890137421</v>
       </c>
     </row>
   </sheetData>
@@ -26738,19 +26740,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,22 +26761,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>114.2062693223604</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>149.4639037000057</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27588,19 +27590,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>24.62049154535623</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>357.8734055277552</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>111.5813117178629</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>125.8077805475477</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>57.73423284399445</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>10.44630900880793</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>35.50675917295878</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>151.2731531174663</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31279,46 +31281,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770693</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
@@ -35498,16 +35500,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>621.6037559756878</v>
+        <v>383.821192807449</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408111</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
         <v>59.8253897034981</v>
@@ -36200,10 +36202,10 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36212,13 +36214,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37634,16 +37636,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,10 +38113,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3731712.472182911</v>
+        <v>3724695.457291199</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7903015.407149072</v>
+        <v>7903015.407149073</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>139.1130115060419</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.46741254485554</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>25.08467608327388</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>261.9025067912348</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>396.3553702281303</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>237.6596569995501</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>152.6509495310449</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.9566202902064</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>75.66951976482</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>359.2847916696611</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>135.0087211245114</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3855844998804878</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>191.4266076452306</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>25.94595380549131</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>45.87424119343817</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>192.0485418516191</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>28.22523322473833</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C28" t="n">
-        <v>36.56241635926716</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>52.31642329161471</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>45.66351106238428</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>72.53254599401305</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>207.9577844203815</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>122.3137095599312</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>36.98273601213555</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.3850306156796</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C2" t="n">
-        <v>885.3850306156796</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D2" t="n">
-        <v>885.3850306156796</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>885.3850306156796</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>474.3991258260721</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>56.43531772425894</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>56.43531772425894</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2035.589960916693</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.124202655613</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y2" t="n">
-        <v>1271.984870679801</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>702.7909275566628</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2402.06014195321</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.59438369213</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4646,10 +4646,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4704,19 +4704,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>550.798971477663</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>403.9090239797526</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>234.9092237180851</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>478.8522906713811</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1255.591462711315</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>865.4521307355029</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6911546495019</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>380.6911546495019</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>380.6911546495019</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>380.6911546495019</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>562.3396194797416</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>874.5376338299834</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>874.5376338299834</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X13" t="n">
-        <v>646.5480829319661</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.7555037884359</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5302,22 +5302,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>581.2185435662825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1272.788226326494</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>983.6595875400524</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>983.6595875400524</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>983.6595875400524</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>983.6595875400524</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.8670083965222</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5539,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W19" t="n">
-        <v>1341.503549752619</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.513998854602</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1193.852741006981</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>1193.852741006981</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.852741006981</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>965.863190108964</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.0706109654338</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>444.7802503911732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>275.8440674632664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>125.7274280509306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>125.7274280509306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>125.7274280509306</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.21084526296</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>1075.21084526296</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>847.2212943649431</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>626.428715221413</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.0685056491545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6417,19 +6417,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>981.5095496229244</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7169704793943</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>444.8650045523214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1244.231782352015</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>1016.242231453998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>795.449652310468</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1252.871501824582</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1252.871501824582</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>1252.871501824582</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>1252.871501824582</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>1024.881950926564</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>804.0893717830343</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6925,22 +6925,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1288.857902456507</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>999.7292636700652</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>999.7292636700652</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>515.5693341162774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>367.6562405338843</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>220.766293035974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>220.766293035974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>990.7828679390639</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>821.846685011157</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1461.559971555745</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.431332769303</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1172.431332769303</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>1172.431332769303</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>1172.431332769303</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>1172.431332769303</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>50.62661940943605</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119833</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>285.1031356539334</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>251.7520588239475</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>34.28304774380658</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>195.6016072528979</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>163.899125433865</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>240.6487571431528</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>94.18881054695828</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.2683352386393</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C28" t="n">
-        <v>130.6844047393607</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24657,10 +24657,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>96.29904972659764</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>175.884049996005</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>94.71427510461479</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>13.58977663800778</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>26.60011880760489</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>184.5648250462537</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289462</v>
+        <v>673713.7004289464</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147618</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="L2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>723403.7605147614</v>
+      </c>
+      <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="P2" t="n">
         <v>723403.7605147614</v>
-      </c>
-      <c r="M2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="N2" t="n">
-        <v>723403.760514761</v>
-      </c>
-      <c r="O2" t="n">
-        <v>723403.7605147612</v>
-      </c>
-      <c r="P2" t="n">
-        <v>723403.7605147611</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531815</v>
+        <v>-87854.09747531803</v>
       </c>
       <c r="C6" t="n">
-        <v>502113.7817392269</v>
+        <v>502113.7817392267</v>
       </c>
       <c r="D6" t="n">
-        <v>502113.7817392269</v>
+        <v>502113.7817392268</v>
       </c>
       <c r="E6" t="n">
-        <v>76952.85253684659</v>
+        <v>75978.26127712459</v>
       </c>
       <c r="F6" t="n">
-        <v>602112.8890137429</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="G6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="H6" t="n">
-        <v>602112.8890137428</v>
+        <v>601138.2977540208</v>
       </c>
       <c r="I6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540209</v>
       </c>
       <c r="J6" t="n">
-        <v>425689.6698211493</v>
+        <v>424715.0785614279</v>
       </c>
       <c r="K6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="L6" t="n">
-        <v>602112.8890137424</v>
+        <v>601138.2977540203</v>
       </c>
       <c r="M6" t="n">
-        <v>467311.873779905</v>
+        <v>466337.2825201836</v>
       </c>
       <c r="N6" t="n">
-        <v>602112.8890137421</v>
+        <v>601138.2977540207</v>
       </c>
       <c r="O6" t="n">
-        <v>602112.8890137423</v>
+        <v>601138.2977540204</v>
       </c>
       <c r="P6" t="n">
-        <v>602112.8890137421</v>
+        <v>601138.2977540208</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,7 +26761,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>215.5700301146411</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>149.4639037000057</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>4.038073871640414</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>24.62049154535623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>111.5813117178629</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>14.59587156758289</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>22.21426855158876</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>289.6033720061876</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>10.44630900880793</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>151.2731531174663</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>383.821192807449</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408111</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36214,10 +36214,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>88.0130327850741</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519462</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3724695.457291199</v>
+        <v>3729634.720140232</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>139.1130115060419</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>21.91205961778168</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.08467608327388</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>396.3553702281303</v>
+        <v>351.3063626729533</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H7" t="n">
-        <v>133.9566202902064</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>75.66951976482</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>186.2507170030312</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>79.44999621770732</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>191.4266076452306</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>37.63559668982773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>57.64843562452423</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>45.66351106238428</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113185</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.9577844203815</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1176.876864157142</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="C2" t="n">
-        <v>1176.876864157142</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>886.7739368229402</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>500.9856842246959</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>89.99977943508839</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>76.07637537367928</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>76.07637537367928</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.476704221264</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y2" t="n">
-        <v>1563.476704221264</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.2060027641987</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4509,28 +4509,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>702.7909275566628</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
         <v>554.6442689908469</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2465.942913862886</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>2096.980396922474</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D5" t="n">
-        <v>1738.714698315724</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E5" t="n">
-        <v>1352.926445717479</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4612,7 +4612,7 @@
         <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>550.798971477663</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>403.9090239797526</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G7" t="n">
-        <v>234.9092237180851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481875</v>
+        <v>631.906440948188</v>
       </c>
       <c r="C8" t="n">
-        <v>555.4725825998845</v>
+        <v>262.9439240077763</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224075</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4849,7 +4849,7 @@
         <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1018.50628101231</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155885</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1107.668635603252</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>1107.668635603252</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="X13" t="n">
-        <v>816.5074119443557</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7148328008255</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>135.2328456924351</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1440.685527502827</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1440.685527502827</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1186.00103929694</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>896.5838692599799</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6174,22 +6174,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6205,46 +6205,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
@@ -6466,7 +6466,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1252.871501824582</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1252.871501824582</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>1252.871501824582</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>1252.871501824582</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>1024.881950926564</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>804.0893717830343</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,25 +6964,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1288.857902456507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>999.7292636700652</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>999.7292636700652</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>710.3120936331045</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>710.3120936331045</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7393,43 +7393,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.977845975556</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
         <v>2123.441607278215</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>285.1031356539334</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>206.78735618087</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.28304774380658</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>111.2782316777084</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>163.899125433865</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.34209567542518</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>175.884049996005</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,19 +25602,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>13.58977663800778</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673713.7004289464</v>
+        <v>673713.7004289463</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673713.7004289463</v>
+        <v>673713.7004289462</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>723403.7605147616</v>
+      </c>
+      <c r="F2" t="n">
         <v>723403.7605147613</v>
-      </c>
-      <c r="F2" t="n">
-        <v>723403.7605147611</v>
       </c>
       <c r="G2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="H2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="I2" t="n">
+        <v>723403.760514761</v>
+      </c>
+      <c r="J2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="K2" t="n">
+        <v>723403.7605147611</v>
+      </c>
+      <c r="L2" t="n">
         <v>723403.7605147614</v>
       </c>
-      <c r="I2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="J2" t="n">
-        <v>723403.7605147614</v>
-      </c>
-      <c r="K2" t="n">
-        <v>723403.760514761</v>
-      </c>
-      <c r="L2" t="n">
-        <v>723403.760514761</v>
-      </c>
       <c r="M2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="N2" t="n">
         <v>723403.7605147613</v>
       </c>
       <c r="O2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="P2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147612</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26435,7 +26435,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26453,7 +26453,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26484,31 +26484,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87854.09747531803</v>
+        <v>-87854.09747531792</v>
       </c>
       <c r="C6" t="n">
         <v>502113.7817392267</v>
@@ -26530,40 +26530,40 @@
         <v>502113.7817392268</v>
       </c>
       <c r="E6" t="n">
-        <v>75978.26127712459</v>
+        <v>76855.39341087441</v>
       </c>
       <c r="F6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="G6" t="n">
-        <v>601138.2977540207</v>
+        <v>602015.4298877701</v>
       </c>
       <c r="H6" t="n">
-        <v>601138.2977540208</v>
+        <v>602015.4298877699</v>
       </c>
       <c r="I6" t="n">
-        <v>601138.2977540209</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="J6" t="n">
-        <v>424715.0785614279</v>
+        <v>425592.2106951771</v>
       </c>
       <c r="K6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.42988777</v>
       </c>
       <c r="L6" t="n">
-        <v>601138.2977540203</v>
+        <v>602015.4298877704</v>
       </c>
       <c r="M6" t="n">
-        <v>466337.2825201836</v>
+        <v>467214.4146539329</v>
       </c>
       <c r="N6" t="n">
-        <v>601138.2977540207</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="O6" t="n">
-        <v>601138.2977540204</v>
+        <v>602015.4298877702</v>
       </c>
       <c r="P6" t="n">
-        <v>601138.2977540208</v>
+        <v>602015.4298877702</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26752,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>215.5700301146411</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>130.0192566270796</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.038073871640414</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.52067551358118</v>
+        <v>55.56968306875814</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H7" t="n">
-        <v>22.21426855158876</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>289.6033720061876</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>168.4323246176517</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>1.88210574939702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35418,7 +35418,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>618.2977090519462</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
